--- a/Feature_engineering.xlsx
+++ b/Feature_engineering.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="69">
   <si>
     <t>Average speed</t>
   </si>
@@ -89,6 +89,138 @@
   </si>
   <si>
     <t>acceleration - probability distribution drives with a particular acceleration for a single trip</t>
+  </si>
+  <si>
+    <t>Driving Style Recognition Based.pdf</t>
+  </si>
+  <si>
+    <t>NN</t>
+  </si>
+  <si>
+    <t>Support vector machine</t>
+  </si>
+  <si>
+    <t>Average velocity</t>
+  </si>
+  <si>
+    <t>Average running velocity except stop</t>
+  </si>
+  <si>
+    <t>Stop time/total time</t>
+  </si>
+  <si>
+    <t>3-1</t>
+  </si>
+  <si>
+    <t>Positive acceleration kinetic energy change per unit mass per unit distance</t>
+  </si>
+  <si>
+    <t>Average positive grade</t>
+  </si>
+  <si>
+    <t>Average negative grade</t>
+  </si>
+  <si>
+    <t>Positive grade time/total time</t>
+  </si>
+  <si>
+    <t>Negative grade time/total time</t>
+  </si>
+  <si>
+    <t>Number of stops per kilometer</t>
+  </si>
+  <si>
+    <t>Average micro-trip time(from start to stop)</t>
+  </si>
+  <si>
+    <t>Acceleration time/total time</t>
+  </si>
+  <si>
+    <t>Deceleration time/total time</t>
+  </si>
+  <si>
+    <t>Standard deviation of acceleration</t>
+  </si>
+  <si>
+    <t>Standard deviation of deceleration</t>
+  </si>
+  <si>
+    <t>Maximum velocity</t>
+  </si>
+  <si>
+    <t>Standard deviation of velocity</t>
+  </si>
+  <si>
+    <t>2-1</t>
+  </si>
+  <si>
+    <t>Average grade</t>
+  </si>
+  <si>
+    <t>Maximum grade</t>
+  </si>
+  <si>
+    <t>Minimum grade</t>
+  </si>
+  <si>
+    <t>Standard deviation of grade</t>
+  </si>
+  <si>
+    <t>Standard deviation of positive grade</t>
+  </si>
+  <si>
+    <t>Standard deviation of negative grade</t>
+  </si>
+  <si>
+    <t>Trip distance</t>
+  </si>
+  <si>
+    <t>Maximum acceleration</t>
+  </si>
+  <si>
+    <t>Minimum deceleration</t>
+  </si>
+  <si>
+    <t>% of time in certain speed intervals</t>
+  </si>
+  <si>
+    <t>% of time in certain acceleration intervals</t>
+  </si>
+  <si>
+    <t>% of time in certain deceleration intervals</t>
+  </si>
+  <si>
+    <t># of acceleration/deceleration shifts per 100m where the difference of adjacent local max-speed and min-speed was &gt; 2 km/h</t>
+  </si>
+  <si>
+    <t>Maximum product of velocity and acceleration</t>
+  </si>
+  <si>
+    <t>Minimum product of velocity and acceleration</t>
+  </si>
+  <si>
+    <t>Average product of velocity and acceleration</t>
+  </si>
+  <si>
+    <t>Standard deviation of product of velocity and acceleration</t>
+  </si>
+  <si>
+    <t>Current velocity</t>
+  </si>
+  <si>
+    <t>Driver power demand</t>
+  </si>
+  <si>
+    <t>SOC</t>
+  </si>
+  <si>
+    <t>Average positive power demand</t>
+  </si>
+  <si>
+    <t>Average negative power demand</t>
+  </si>
+  <si>
+    <t>Standard deviation of positive power demand</t>
   </si>
 </sst>
 </file>
@@ -243,7 +375,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -257,7 +389,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -453,7 +596,7 @@
       <xdr:col>9</xdr:col>
       <xdr:colOff>335280</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>145770</xdr:rowOff>
+      <xdr:rowOff>136245</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -508,7 +651,7 @@
       <xdr:col>15</xdr:col>
       <xdr:colOff>99060</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>19827</xdr:rowOff>
+      <xdr:rowOff>10302</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -842,25 +985,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C64"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="75.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="75.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" style="9"/>
+    <col min="4" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="13.9" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="13.15" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>19</v>
       </c>
@@ -868,7 +1012,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="13.15" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
@@ -876,7 +1020,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="13.15" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>1</v>
       </c>
@@ -884,7 +1028,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="13.15" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>2</v>
       </c>
@@ -892,7 +1036,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="13.15" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>3</v>
       </c>
@@ -900,48 +1044,48 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="13.15" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="6"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="13.15" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="6"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="13.15" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="6"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="13.15" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="6"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="13.15" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B11" s="6"/>
     </row>
-    <row r="12" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="13.9" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B12" s="8"/>
     </row>
-    <row r="14" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="13.9" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="13.15" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>19</v>
       </c>
@@ -949,18 +1093,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="13.15" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C16" s="10">
         <v>0.9</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="13.15" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>18</v>
       </c>
@@ -968,23 +1112,409 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="13.15" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B18" s="6"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="13.15" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B19" s="6"/>
     </row>
-    <row r="20" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" ht="13.9" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>22</v>
       </c>
       <c r="B20" s="8"/>
+    </row>
+    <row r="22" spans="1:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="6"/>
+      <c r="C26" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" s="6"/>
+      <c r="C27" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B28" s="6"/>
+      <c r="C28" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29" s="6"/>
+      <c r="C29" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" s="6"/>
+      <c r="C30" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" s="6"/>
+      <c r="C31" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" s="6"/>
+      <c r="C32" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" s="6"/>
+      <c r="C33" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" s="6"/>
+      <c r="C34" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" s="6"/>
+      <c r="C35" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" s="6"/>
+      <c r="C36" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37" s="6"/>
+      <c r="C37" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" s="6"/>
+      <c r="C38" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39" s="6"/>
+      <c r="C39" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40" s="6"/>
+      <c r="C40" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41" s="6"/>
+      <c r="C41" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B42" s="6"/>
+      <c r="C42" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B43" s="6"/>
+      <c r="C43" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B44" s="6"/>
+      <c r="C44" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B45" s="6"/>
+      <c r="C45" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B46" s="6"/>
+      <c r="C46" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B47" s="6"/>
+      <c r="C47" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B48" s="6"/>
+      <c r="C48" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B49" s="6"/>
+      <c r="C49" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B50" s="6"/>
+      <c r="C50" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B51" s="6"/>
+      <c r="C51" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B52" s="6"/>
+      <c r="C52" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B53" s="6"/>
+      <c r="C53" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B54" s="6"/>
+      <c r="C54" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B55" s="6"/>
+      <c r="C55" s="9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B56" s="6"/>
+      <c r="C56" s="9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B57" s="6"/>
+      <c r="C57" s="9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B58" s="6"/>
+      <c r="C58" s="9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B59" s="6"/>
+      <c r="C59" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B60" s="6"/>
+      <c r="C60" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B61" s="6"/>
+      <c r="C61" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B62" s="6"/>
+      <c r="C62" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B63" s="6"/>
+      <c r="C63" s="9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B64" s="8"/>
+      <c r="C64" s="9">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Feature_engineering.xlsx
+++ b/Feature_engineering.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="25007"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="100" windowWidth="20380" windowHeight="15160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="122211" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="77">
   <si>
     <t>Average speed</t>
   </si>
@@ -221,13 +226,37 @@
   </si>
   <si>
     <t>Standard deviation of positive power demand</t>
+  </si>
+  <si>
+    <t>LS12IWGS.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> turning point</t>
+  </si>
+  <si>
+    <t>sub-trajectories</t>
+  </si>
+  <si>
+    <t>Center of mass.</t>
+  </si>
+  <si>
+    <t>Displacement.</t>
+  </si>
+  <si>
+    <t>Cosine similarity</t>
+  </si>
+  <si>
+    <t>Semantic Similarity</t>
+  </si>
+  <si>
+    <t>Geographic Similarity</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -258,6 +287,22 @@
       <family val="1"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -283,97 +328,99 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -402,7 +449,9 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -463,7 +512,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -518,7 +567,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -573,7 +622,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -628,7 +677,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -683,7 +732,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -741,7 +790,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -776,7 +825,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -985,26 +1034,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C64"/>
+  <dimension ref="A1:C72"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="C55" sqref="C55"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="A67" sqref="A67:B72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="75.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" style="9"/>
-    <col min="4" max="16384" width="8.85546875" style="2"/>
+    <col min="1" max="1" width="75.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" style="9"/>
+    <col min="4" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="13.9" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="14" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="13.15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
         <v>19</v>
       </c>
@@ -1012,7 +1061,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="13.15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
@@ -1020,7 +1069,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="13.15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="5" t="s">
         <v>1</v>
       </c>
@@ -1028,7 +1077,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="13.15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" s="5" t="s">
         <v>2</v>
       </c>
@@ -1036,7 +1085,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="13.15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1044,48 +1093,48 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="13.15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="6"/>
     </row>
-    <row r="8" spans="1:3" ht="13.15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="6"/>
     </row>
-    <row r="9" spans="1:3" ht="13.15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="6"/>
     </row>
-    <row r="10" spans="1:3" ht="13.15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="6"/>
     </row>
-    <row r="11" spans="1:3" ht="13.15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B11" s="6"/>
     </row>
-    <row r="12" spans="1:3" ht="13.9" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="14" thickBot="1">
       <c r="A12" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B12" s="8"/>
     </row>
-    <row r="14" spans="1:3" ht="13.9" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="14" thickBot="1">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="13.15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
         <v>19</v>
       </c>
@@ -1093,7 +1142,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="13.15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="A16" s="5" t="s">
         <v>24</v>
       </c>
@@ -1104,7 +1153,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="13.15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="A17" s="5" t="s">
         <v>18</v>
       </c>
@@ -1112,30 +1161,30 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="13.15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3">
       <c r="A18" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B18" s="6"/>
     </row>
-    <row r="19" spans="1:3" ht="13.15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="A19" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B19" s="6"/>
     </row>
-    <row r="20" spans="1:3" ht="13.9" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" ht="14" thickBot="1">
       <c r="A20" s="7" t="s">
         <v>22</v>
       </c>
       <c r="B20" s="8"/>
     </row>
-    <row r="22" spans="1:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="14" thickBot="1">
       <c r="A22" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3">
       <c r="A23" s="3" t="s">
         <v>19</v>
       </c>
@@ -1143,7 +1192,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3">
       <c r="A24" s="5" t="s">
         <v>28</v>
       </c>
@@ -1154,7 +1203,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3">
       <c r="A25" s="5" t="s">
         <v>29</v>
       </c>
@@ -1165,7 +1214,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3">
       <c r="A26" s="5" t="s">
         <v>30</v>
       </c>
@@ -1174,7 +1223,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3">
       <c r="A27" s="12" t="s">
         <v>32</v>
       </c>
@@ -1183,7 +1232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3">
       <c r="A28" s="5" t="s">
         <v>2</v>
       </c>
@@ -1192,7 +1241,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3">
       <c r="A29" s="5" t="s">
         <v>3</v>
       </c>
@@ -1201,7 +1250,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3">
       <c r="A30" s="5" t="s">
         <v>33</v>
       </c>
@@ -1210,7 +1259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3">
       <c r="A31" s="5" t="s">
         <v>34</v>
       </c>
@@ -1219,7 +1268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3">
       <c r="A32" s="5" t="s">
         <v>35</v>
       </c>
@@ -1228,7 +1277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3">
       <c r="A33" s="5" t="s">
         <v>36</v>
       </c>
@@ -1237,7 +1286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3">
       <c r="A34" s="5" t="s">
         <v>37</v>
       </c>
@@ -1246,7 +1295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3">
       <c r="A35" s="5" t="s">
         <v>38</v>
       </c>
@@ -1255,7 +1304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3">
       <c r="A36" s="5" t="s">
         <v>39</v>
       </c>
@@ -1264,7 +1313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3">
       <c r="A37" s="5" t="s">
         <v>40</v>
       </c>
@@ -1273,7 +1322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3">
       <c r="A38" s="5" t="s">
         <v>41</v>
       </c>
@@ -1282,7 +1331,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3">
       <c r="A39" s="5" t="s">
         <v>42</v>
       </c>
@@ -1291,7 +1340,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3">
       <c r="A40" s="5" t="s">
         <v>43</v>
       </c>
@@ -1300,7 +1349,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3">
       <c r="A41" s="5" t="s">
         <v>44</v>
       </c>
@@ -1309,7 +1358,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3">
       <c r="A42" s="5" t="s">
         <v>46</v>
       </c>
@@ -1318,7 +1367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3">
       <c r="A43" s="5" t="s">
         <v>47</v>
       </c>
@@ -1327,7 +1376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3">
       <c r="A44" s="5" t="s">
         <v>48</v>
       </c>
@@ -1336,7 +1385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3">
       <c r="A45" s="5" t="s">
         <v>49</v>
       </c>
@@ -1345,7 +1394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3">
       <c r="A46" s="5" t="s">
         <v>50</v>
       </c>
@@ -1354,7 +1403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3">
       <c r="A47" s="5" t="s">
         <v>51</v>
       </c>
@@ -1363,7 +1412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3">
       <c r="A48" s="5" t="s">
         <v>52</v>
       </c>
@@ -1372,7 +1421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3">
       <c r="A49" s="5" t="s">
         <v>53</v>
       </c>
@@ -1381,7 +1430,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3">
       <c r="A50" s="5" t="s">
         <v>54</v>
       </c>
@@ -1390,7 +1439,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3">
       <c r="A51" s="5" t="s">
         <v>55</v>
       </c>
@@ -1399,7 +1448,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3">
       <c r="A52" s="5" t="s">
         <v>56</v>
       </c>
@@ -1408,7 +1457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3">
       <c r="A53" s="5" t="s">
         <v>57</v>
       </c>
@@ -1417,7 +1466,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3">
       <c r="A54" s="5" t="s">
         <v>58</v>
       </c>
@@ -1426,7 +1475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3">
       <c r="A55" s="5" t="s">
         <v>59</v>
       </c>
@@ -1435,7 +1484,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3">
       <c r="A56" s="5" t="s">
         <v>60</v>
       </c>
@@ -1444,7 +1493,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3">
       <c r="A57" s="5" t="s">
         <v>61</v>
       </c>
@@ -1453,7 +1502,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3">
       <c r="A58" s="5" t="s">
         <v>62</v>
       </c>
@@ -1462,7 +1511,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3">
       <c r="A59" s="5" t="s">
         <v>63</v>
       </c>
@@ -1471,7 +1520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3">
       <c r="A60" s="5" t="s">
         <v>64</v>
       </c>
@@ -1480,7 +1529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3">
       <c r="A61" s="5" t="s">
         <v>65</v>
       </c>
@@ -1489,7 +1538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3">
       <c r="A62" s="5" t="s">
         <v>66</v>
       </c>
@@ -1498,7 +1547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3">
       <c r="A63" s="5" t="s">
         <v>67</v>
       </c>
@@ -1507,7 +1556,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" ht="14" thickBot="1">
       <c r="A64" s="7" t="s">
         <v>68</v>
       </c>
@@ -1516,8 +1565,61 @@
         <v>1</v>
       </c>
     </row>
+    <row r="66" spans="1:2" ht="14" thickBot="1">
+      <c r="A66" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B70" s="6"/>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B71" s="6"/>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B72" s="6"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/Feature_engineering.xlsx
+++ b/Feature_engineering.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="102">
   <si>
     <t>Average speed</t>
   </si>
@@ -250,13 +250,188 @@
   </si>
   <si>
     <t>Geographic Similarity</t>
+  </si>
+  <si>
+    <t>NieWuYu_Driving Behavior Improvement and Driver Recognition Based on Real-Time Driving Information</t>
+  </si>
+  <si>
+    <t>transient speed</t>
+  </si>
+  <si>
+    <t>heading degrees</t>
+  </si>
+  <si>
+    <t>2 minutes threshold stop</t>
+  </si>
+  <si>
+    <t>average speed</t>
+  </si>
+  <si>
+    <t>gas usage</t>
+  </si>
+  <si>
+    <t>total mileage</t>
+  </si>
+  <si>
+    <t>trip time</t>
+  </si>
+  <si>
+    <t>L-2 norm of the acceleration</t>
+  </si>
+  <si>
+    <t>centrifugal acceleration</t>
+  </si>
+  <si>
+    <t>forward acceleration</t>
+  </si>
+  <si>
+    <t>vertical acceleration</t>
+  </si>
+  <si>
+    <t>Na¨ıve Bayes</t>
+  </si>
+  <si>
+    <t>relationship between trip average MPG and trip average MPH (key)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> k-means</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Libian SC Regular"/>
+        <family val="1"/>
+      </rPr>
+      <t>利用车载</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>GPS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Libian SC Regular"/>
+        <family val="1"/>
+      </rPr>
+      <t>轨迹数据实现公交车驾驶安全性分析</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>.pdf</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Wawati SC Regular"/>
+        <family val="1"/>
+      </rPr>
+      <t>T 时间</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">V </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Libian SC Regular"/>
+        <family val="1"/>
+      </rPr>
+      <t>速度</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">W </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Libian SC Regular"/>
+        <family val="1"/>
+      </rPr>
+      <t>纬度</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">J </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Libian SC Regular"/>
+        <family val="1"/>
+      </rPr>
+      <t>经度</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">H </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Libian SC Regular"/>
+        <family val="1"/>
+      </rPr>
+      <t>方向角</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Libian SC Regular"/>
+        <family val="1"/>
+      </rPr>
+      <t>加速度值 : A=(V1-V0)/(T1-T0)</t>
+    </r>
+  </si>
+  <si>
+    <t>急加速或者急减速 距离、时长和次数 ３ｍ／ｓ２</t>
+  </si>
+  <si>
+    <t>急转弯 距离、时长和次数 ２０ｋｍ／ｈ</t>
+  </si>
+  <si>
+    <t>smoothing_methods_designed_to_minimize_the_impact_of_gps_random_error_on_travel_distance_speed_and_acceleration_profile_estimates-trr.pdf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -303,6 +478,18 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Libian SC Regular"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Wawati SC Regular"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -417,8 +604,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -449,9 +644,17 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="11">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1034,16 +1237,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C72"/>
+  <dimension ref="A1:C100"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="A67" sqref="A67:B72"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="D103" sqref="D103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="75.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="69.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="23.5" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.83203125" style="9"/>
     <col min="4" max="16384" width="8.83203125" style="2"/>
   </cols>
@@ -1606,11 +1809,172 @@
       </c>
       <c r="B71" s="6"/>
     </row>
-    <row r="72" spans="1:2">
-      <c r="A72" s="5" t="s">
+    <row r="72" spans="1:2" ht="14" thickBot="1">
+      <c r="A72" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="B72" s="6"/>
+      <c r="B72" s="8"/>
+    </row>
+    <row r="74" spans="1:2" ht="14" thickBot="1">
+      <c r="A74" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B80" s="6"/>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B81" s="6"/>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B82" s="6"/>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B83" s="6"/>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B84" s="6"/>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B85" s="6"/>
+    </row>
+    <row r="86" spans="1:2" ht="14" thickBot="1">
+      <c r="A86" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B86" s="8"/>
+    </row>
+    <row r="88" spans="1:2" ht="16" thickBot="1">
+      <c r="A88" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="15">
+      <c r="A90" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B90" s="6"/>
+    </row>
+    <row r="91" spans="1:2" ht="15">
+      <c r="A91" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B91" s="6"/>
+    </row>
+    <row r="92" spans="1:2" ht="15">
+      <c r="A92" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B92" s="6"/>
+    </row>
+    <row r="93" spans="1:2" ht="15">
+      <c r="A93" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B93" s="6"/>
+    </row>
+    <row r="94" spans="1:2" ht="15">
+      <c r="A94" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B94" s="6"/>
+    </row>
+    <row r="95" spans="1:2" ht="15">
+      <c r="A95" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B95" s="6"/>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B96" s="6"/>
+    </row>
+    <row r="97" spans="1:2" ht="14" thickBot="1">
+      <c r="A97" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="B97" s="8"/>
+    </row>
+    <row r="99" spans="1:2" ht="14" thickBot="1">
+      <c r="A99" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Feature_engineering.xlsx
+++ b/Feature_engineering.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="25007"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="100" windowWidth="20380" windowHeight="15160"/>
+    <workbookView xWindow="240" yWindow="100" windowWidth="24900" windowHeight="18480"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="105">
   <si>
     <t>Average speed</t>
   </si>
@@ -426,12 +426,21 @@
   <si>
     <t>smoothing_methods_designed_to_minimize_the_impact_of_gps_random_error_on_travel_distance_speed_and_acceleration_profile_estimates-trr.pdf</t>
   </si>
+  <si>
+    <t>Least-Squares Spline Approximation</t>
+  </si>
+  <si>
+    <t>Kernel-Based Smoothing Method</t>
+  </si>
+  <si>
+    <t>Modified Kalman Filter</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -490,6 +499,19 @@
       <name val="Wawati SC Regular"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Cambria"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Cambria"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -617,7 +639,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -643,6 +665,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -674,16 +698,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>30479</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>373379</xdr:colOff>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>309658</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>68358</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>86360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -707,8 +731,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7635239" y="0"/>
-          <a:ext cx="3936779" cy="3268980"/>
+          <a:off x="7472679" y="7912100"/>
+          <a:ext cx="4317779" cy="3235960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -729,16 +753,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>236220</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>109220</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>477774</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>350774</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>119380</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -762,8 +786,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="11498580" y="0"/>
-          <a:ext cx="3899154" cy="1546860"/>
+          <a:off x="15311120" y="6515100"/>
+          <a:ext cx="4280154" cy="1529080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -784,16 +808,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>571499</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3543299</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>184246</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>438246</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -817,8 +841,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="11224259" y="1638300"/>
-          <a:ext cx="3879947" cy="1539240"/>
+          <a:off x="11315699" y="9558020"/>
+          <a:ext cx="4324447" cy="1526540"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -840,15 +864,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>99060</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
+      <xdr:colOff>3693160</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>147320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>335280</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>136245</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>538480</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>148945</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -872,8 +896,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7703820" y="3200400"/>
-          <a:ext cx="3893820" cy="1502130"/>
+          <a:off x="11465560" y="8059420"/>
+          <a:ext cx="4274820" cy="1487525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -894,16 +918,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>68580</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>259080</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>73660</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>99060</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>10302</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>73802</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -927,8 +951,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="11330940" y="3063240"/>
-          <a:ext cx="3688080" cy="3022107"/>
+          <a:off x="15460980" y="7985760"/>
+          <a:ext cx="4069080" cy="2984642"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1237,10 +1261,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C100"/>
+  <dimension ref="A1:E64"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="D103" sqref="D103"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -1248,104 +1272,178 @@
     <col min="1" max="1" width="69.6640625" style="2" customWidth="1"/>
     <col min="2" max="2" width="23.5" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.83203125" style="9"/>
-    <col min="4" max="16384" width="8.83203125" style="2"/>
+    <col min="4" max="4" width="51.83203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="19.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="14" thickBot="1">
+    <row r="1" spans="1:5" ht="14" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E5" s="6"/>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E6" s="6"/>
+    </row>
+    <row r="7" spans="1:5" ht="14" thickBot="1">
       <c r="A7" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="6"/>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E7" s="8"/>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="6"/>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:5" ht="14" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="6"/>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="D9" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="6"/>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="D10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B11" s="6"/>
-    </row>
-    <row r="12" spans="1:3" ht="14" thickBot="1">
+      <c r="D11" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="14" thickBot="1">
       <c r="A12" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B12" s="8"/>
-    </row>
-    <row r="14" spans="1:3" ht="14" thickBot="1">
+      <c r="D12" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="D13" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="14" thickBot="1">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="D14" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="D15" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E15" s="6"/>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="5" t="s">
         <v>24</v>
       </c>
@@ -1355,47 +1453,76 @@
       <c r="C16" s="10">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="D16" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E16" s="6"/>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E17" s="6"/>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B18" s="6"/>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E18" s="6"/>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B19" s="6"/>
-    </row>
-    <row r="20" spans="1:3" ht="14" thickBot="1">
+      <c r="D19" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E19" s="6"/>
+    </row>
+    <row r="20" spans="1:5" ht="14" thickBot="1">
       <c r="A20" s="7" t="s">
         <v>22</v>
       </c>
       <c r="B20" s="8"/>
-    </row>
-    <row r="22" spans="1:3" ht="14" thickBot="1">
+      <c r="D20" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E20" s="6"/>
+    </row>
+    <row r="21" spans="1:5" ht="14" thickBot="1">
+      <c r="D21" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="E21" s="8"/>
+    </row>
+    <row r="22" spans="1:5" ht="14" thickBot="1">
       <c r="A22" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:5" ht="16" thickBot="1">
       <c r="A23" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="D23" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" s="5" t="s">
         <v>28</v>
       </c>
@@ -1405,8 +1532,14 @@
       <c r="C24" s="9">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="D24" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15">
       <c r="A25" s="5" t="s">
         <v>29</v>
       </c>
@@ -1416,8 +1549,12 @@
       <c r="C25" s="9">
         <v>2</v>
       </c>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="D25" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E25" s="6"/>
+    </row>
+    <row r="26" spans="1:5" ht="15">
       <c r="A26" s="5" t="s">
         <v>30</v>
       </c>
@@ -1425,8 +1562,12 @@
       <c r="C26" s="11" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
+      <c r="D26" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E26" s="6"/>
+    </row>
+    <row r="27" spans="1:5" ht="15">
       <c r="A27" s="12" t="s">
         <v>32</v>
       </c>
@@ -1434,8 +1575,12 @@
       <c r="C27" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E27" s="6"/>
+    </row>
+    <row r="28" spans="1:5" ht="15">
       <c r="A28" s="5" t="s">
         <v>2</v>
       </c>
@@ -1443,8 +1588,12 @@
       <c r="C28" s="9">
         <v>3</v>
       </c>
-    </row>
-    <row r="29" spans="1:3">
+      <c r="D28" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E28" s="6"/>
+    </row>
+    <row r="29" spans="1:5" ht="15">
       <c r="A29" s="5" t="s">
         <v>3</v>
       </c>
@@ -1452,8 +1601,12 @@
       <c r="C29" s="9">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
+      <c r="D29" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E29" s="6"/>
+    </row>
+    <row r="30" spans="1:5" ht="15">
       <c r="A30" s="5" t="s">
         <v>33</v>
       </c>
@@ -1461,8 +1614,12 @@
       <c r="C30" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:3">
+      <c r="D30" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="E30" s="6"/>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" s="5" t="s">
         <v>34</v>
       </c>
@@ -1470,8 +1627,12 @@
       <c r="C31" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:3">
+      <c r="D31" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E31" s="6"/>
+    </row>
+    <row r="32" spans="1:5" ht="14" thickBot="1">
       <c r="A32" s="5" t="s">
         <v>35</v>
       </c>
@@ -1479,8 +1640,12 @@
       <c r="C32" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:3">
+      <c r="D32" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E32" s="8"/>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" s="5" t="s">
         <v>36</v>
       </c>
@@ -1489,7 +1654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:5" ht="14" thickBot="1">
       <c r="A34" s="5" t="s">
         <v>37</v>
       </c>
@@ -1497,8 +1662,11 @@
       <c r="C34" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:3">
+      <c r="D34" s="13" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" s="5" t="s">
         <v>38</v>
       </c>
@@ -1506,8 +1674,14 @@
       <c r="C35" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:3">
+      <c r="D35" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" s="5" t="s">
         <v>39</v>
       </c>
@@ -1515,8 +1689,12 @@
       <c r="C36" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:3">
+      <c r="D36" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="E36" s="6"/>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" s="5" t="s">
         <v>40</v>
       </c>
@@ -1524,8 +1702,12 @@
       <c r="C37" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E37" s="6"/>
+    </row>
+    <row r="38" spans="1:5" ht="14" thickBot="1">
       <c r="A38" s="5" t="s">
         <v>41</v>
       </c>
@@ -1533,8 +1715,14 @@
       <c r="C38" s="11" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="39" spans="1:3">
+      <c r="D38" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="E38" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39" s="5" t="s">
         <v>42</v>
       </c>
@@ -1543,7 +1731,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:5">
       <c r="A40" s="5" t="s">
         <v>43</v>
       </c>
@@ -1552,7 +1740,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:5">
       <c r="A41" s="5" t="s">
         <v>44</v>
       </c>
@@ -1561,7 +1749,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:5">
       <c r="A42" s="5" t="s">
         <v>46</v>
       </c>
@@ -1570,7 +1758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:5">
       <c r="A43" s="5" t="s">
         <v>47</v>
       </c>
@@ -1579,7 +1767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:5">
       <c r="A44" s="5" t="s">
         <v>48</v>
       </c>
@@ -1588,7 +1776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:5">
       <c r="A45" s="5" t="s">
         <v>49</v>
       </c>
@@ -1597,7 +1785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:5">
       <c r="A46" s="5" t="s">
         <v>50</v>
       </c>
@@ -1606,7 +1794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:5">
       <c r="A47" s="5" t="s">
         <v>51</v>
       </c>
@@ -1615,7 +1803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:5">
       <c r="A48" s="5" t="s">
         <v>52</v>
       </c>
@@ -1766,214 +1954,6 @@
       <c r="B64" s="8"/>
       <c r="C64" s="9">
         <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" ht="14" thickBot="1">
-      <c r="A66" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B68" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B69" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B70" s="6"/>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="B71" s="6"/>
-    </row>
-    <row r="72" spans="1:2" ht="14" thickBot="1">
-      <c r="A72" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="B72" s="8"/>
-    </row>
-    <row r="74" spans="1:2" ht="14" thickBot="1">
-      <c r="A74" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="A75" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
-      <c r="A76" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="B76" s="6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
-      <c r="A77" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B77" s="6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
-      <c r="A78" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="B78" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
-      <c r="A79" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="B79" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
-      <c r="A80" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="B80" s="6"/>
-    </row>
-    <row r="81" spans="1:2">
-      <c r="A81" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="B81" s="6"/>
-    </row>
-    <row r="82" spans="1:2">
-      <c r="A82" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B82" s="6"/>
-    </row>
-    <row r="83" spans="1:2">
-      <c r="A83" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="B83" s="6"/>
-    </row>
-    <row r="84" spans="1:2">
-      <c r="A84" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="B84" s="6"/>
-    </row>
-    <row r="85" spans="1:2">
-      <c r="A85" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="B85" s="6"/>
-    </row>
-    <row r="86" spans="1:2" ht="14" thickBot="1">
-      <c r="A86" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="B86" s="8"/>
-    </row>
-    <row r="88" spans="1:2" ht="16" thickBot="1">
-      <c r="A88" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
-      <c r="A89" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B89" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" ht="15">
-      <c r="A90" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="B90" s="6"/>
-    </row>
-    <row r="91" spans="1:2" ht="15">
-      <c r="A91" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="B91" s="6"/>
-    </row>
-    <row r="92" spans="1:2" ht="15">
-      <c r="A92" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="B92" s="6"/>
-    </row>
-    <row r="93" spans="1:2" ht="15">
-      <c r="A93" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="B93" s="6"/>
-    </row>
-    <row r="94" spans="1:2" ht="15">
-      <c r="A94" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="B94" s="6"/>
-    </row>
-    <row r="95" spans="1:2" ht="15">
-      <c r="A95" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="B95" s="6"/>
-    </row>
-    <row r="96" spans="1:2">
-      <c r="A96" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B96" s="6"/>
-    </row>
-    <row r="97" spans="1:2" ht="14" thickBot="1">
-      <c r="A97" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="B97" s="8"/>
-    </row>
-    <row r="99" spans="1:2" ht="14" thickBot="1">
-      <c r="A99" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
-      <c r="A100" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B100" s="4" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Feature_engineering.xlsx
+++ b/Feature_engineering.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="25007"/>
-  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="100" windowWidth="24900" windowHeight="18480"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="24900" windowHeight="18480"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -349,20 +349,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">V </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Libian SC Regular"/>
-        <family val="1"/>
-      </rPr>
-      <t>速度</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">W </t>
     </r>
     <r>
@@ -390,13 +376,45 @@
     </r>
   </si>
   <si>
+    <t>急加速或者急减速 距离、时长和次数 ３ｍ／ｓ２</t>
+  </si>
+  <si>
+    <t>急转弯 距离、时长和次数 ２０ｋｍ／ｈ</t>
+  </si>
+  <si>
+    <t>smoothing_methods_designed_to_minimize_the_impact_of_gps_random_error_on_travel_distance_speed_and_acceleration_profile_estimates-trr.pdf</t>
+  </si>
+  <si>
+    <t>Least-Squares Spline Approximation</t>
+  </si>
+  <si>
+    <t>Kernel-Based Smoothing Method</t>
+  </si>
+  <si>
+    <t>Modified Kalman Filter</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Libian SC Regular"/>
+        <family val="1"/>
+      </rPr>
+      <t>加速度值 : A=(V1-V0)/(T1-T0)</t>
+    </r>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">H </t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <color theme="1"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Libian SC Regular"/>
         <family val="1"/>
       </rPr>
@@ -405,42 +423,24 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">A </t>
+      <t xml:space="preserve">V </t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <color theme="1"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Libian SC Regular"/>
         <family val="1"/>
       </rPr>
-      <t>加速度值 : A=(V1-V0)/(T1-T0)</t>
+      <t>速度</t>
     </r>
-  </si>
-  <si>
-    <t>急加速或者急减速 距离、时长和次数 ３ｍ／ｓ２</t>
-  </si>
-  <si>
-    <t>急转弯 距离、时长和次数 ２０ｋｍ／ｈ</t>
-  </si>
-  <si>
-    <t>smoothing_methods_designed_to_minimize_the_impact_of_gps_random_error_on_travel_distance_speed_and_acceleration_profile_estimates-trr.pdf</t>
-  </si>
-  <si>
-    <t>Least-Squares Spline Approximation</t>
-  </si>
-  <si>
-    <t>Kernel-Based Smoothing Method</t>
-  </si>
-  <si>
-    <t>Modified Kalman Filter</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -504,13 +504,21 @@
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Cambria"/>
+      <family val="1"/>
       <scheme val="major"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Cambria"/>
+      <family val="1"/>
       <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Libian SC Regular"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -639,7 +647,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -667,6 +675,7 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -740,7 +749,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -795,7 +804,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -850,7 +859,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -905,7 +914,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -960,7 +969,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1263,21 +1272,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E64"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="69.6640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="23.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.83203125" style="9"/>
-    <col min="4" max="4" width="51.83203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="19.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.83203125" style="2"/>
+    <col min="1" max="1" width="69.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" style="9"/>
+    <col min="4" max="4" width="51.85546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14" thickBot="1">
+    <row r="1" spans="1:5" ht="13.5" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -1300,13 +1309,13 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="15" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="15" t="s">
         <v>70</v>
       </c>
       <c r="E3" s="6" t="s">
@@ -1314,7 +1323,7 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="15" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="6" t="s">
@@ -1328,7 +1337,7 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="15" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="6" t="s">
@@ -1340,7 +1349,7 @@
       <c r="E5" s="6"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="15" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -1351,8 +1360,8 @@
       </c>
       <c r="E6" s="6"/>
     </row>
-    <row r="7" spans="1:5" ht="14" thickBot="1">
-      <c r="A7" s="5" t="s">
+    <row r="7" spans="1:5" ht="13.5" thickBot="1">
+      <c r="A7" s="15" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="6"/>
@@ -1362,13 +1371,13 @@
       <c r="E7" s="8"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="15" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="6"/>
     </row>
-    <row r="9" spans="1:5" ht="14" thickBot="1">
-      <c r="A9" s="5" t="s">
+    <row r="9" spans="1:5" ht="13.5" thickBot="1">
+      <c r="A9" s="15" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="6"/>
@@ -1377,7 +1386,7 @@
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="15" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="6"/>
@@ -1389,7 +1398,7 @@
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="15" t="s">
         <v>8</v>
       </c>
       <c r="B11" s="6"/>
@@ -1400,12 +1409,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="14" thickBot="1">
-      <c r="A12" s="7" t="s">
+    <row r="12" spans="1:5" ht="13.5" thickBot="1">
+      <c r="A12" s="14" t="s">
         <v>9</v>
       </c>
       <c r="B12" s="8"/>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="15" t="s">
         <v>79</v>
       </c>
       <c r="E12" s="6" t="s">
@@ -1413,14 +1422,14 @@
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="15" t="s">
         <v>85</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="14" thickBot="1">
+    <row r="14" spans="1:5" ht="13.5" thickBot="1">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
@@ -1438,13 +1447,13 @@
       <c r="B15" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="15" t="s">
         <v>81</v>
       </c>
       <c r="E15" s="6"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="15" t="s">
         <v>24</v>
       </c>
       <c r="B16" s="6" t="s">
@@ -1459,59 +1468,59 @@
       <c r="E16" s="6"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="15" t="s">
         <v>18</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="15" t="s">
         <v>84</v>
       </c>
       <c r="E17" s="6"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="15" t="s">
         <v>21</v>
       </c>
       <c r="B18" s="6"/>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="15" t="s">
         <v>86</v>
       </c>
       <c r="E18" s="6"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="15" t="s">
         <v>23</v>
       </c>
       <c r="B19" s="6"/>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="15" t="s">
         <v>87</v>
       </c>
       <c r="E19" s="6"/>
     </row>
-    <row r="20" spans="1:5" ht="14" thickBot="1">
+    <row r="20" spans="1:5" ht="13.5" thickBot="1">
       <c r="A20" s="7" t="s">
         <v>22</v>
       </c>
       <c r="B20" s="8"/>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="15" t="s">
         <v>88</v>
       </c>
       <c r="E20" s="6"/>
     </row>
-    <row r="21" spans="1:5" ht="14" thickBot="1">
+    <row r="21" spans="1:5" ht="13.5" thickBot="1">
       <c r="D21" s="7" t="s">
         <v>90</v>
       </c>
       <c r="E21" s="8"/>
     </row>
-    <row r="22" spans="1:5" ht="14" thickBot="1">
+    <row r="22" spans="1:5" ht="13.5" thickBot="1">
       <c r="A22" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="16" thickBot="1">
+    <row r="23" spans="1:5" ht="13.5" thickBot="1">
       <c r="A23" s="3" t="s">
         <v>19</v>
       </c>
@@ -1523,7 +1532,7 @@
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="15" t="s">
         <v>28</v>
       </c>
       <c r="B24" s="6" t="s">
@@ -1539,8 +1548,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15">
-      <c r="A25" s="5" t="s">
+    <row r="25" spans="1:5">
+      <c r="A25" s="15" t="s">
         <v>29</v>
       </c>
       <c r="B25" s="6" t="s">
@@ -1554,20 +1563,20 @@
       </c>
       <c r="E25" s="6"/>
     </row>
-    <row r="26" spans="1:5" ht="15">
-      <c r="A26" s="5" t="s">
+    <row r="26" spans="1:5">
+      <c r="A26" s="15" t="s">
         <v>30</v>
       </c>
       <c r="B26" s="6"/>
       <c r="C26" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D26" s="5" t="s">
-        <v>94</v>
+      <c r="D26" s="15" t="s">
+        <v>104</v>
       </c>
       <c r="E26" s="6"/>
     </row>
-    <row r="27" spans="1:5" ht="15">
+    <row r="27" spans="1:5">
       <c r="A27" s="12" t="s">
         <v>32</v>
       </c>
@@ -1576,12 +1585,12 @@
         <v>1</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E27" s="6"/>
     </row>
-    <row r="28" spans="1:5" ht="15">
-      <c r="A28" s="5" t="s">
+    <row r="28" spans="1:5">
+      <c r="A28" s="15" t="s">
         <v>2</v>
       </c>
       <c r="B28" s="6"/>
@@ -1589,24 +1598,24 @@
         <v>3</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E28" s="6"/>
     </row>
-    <row r="29" spans="1:5" ht="15">
-      <c r="A29" s="5" t="s">
+    <row r="29" spans="1:5">
+      <c r="A29" s="15" t="s">
         <v>3</v>
       </c>
       <c r="B29" s="6"/>
       <c r="C29" s="9">
         <v>3</v>
       </c>
-      <c r="D29" s="5" t="s">
-        <v>97</v>
+      <c r="D29" s="15" t="s">
+        <v>103</v>
       </c>
       <c r="E29" s="6"/>
     </row>
-    <row r="30" spans="1:5" ht="15">
+    <row r="30" spans="1:5">
       <c r="A30" s="5" t="s">
         <v>33</v>
       </c>
@@ -1614,8 +1623,8 @@
       <c r="C30" s="9">
         <v>1</v>
       </c>
-      <c r="D30" s="5" t="s">
-        <v>98</v>
+      <c r="D30" s="15" t="s">
+        <v>102</v>
       </c>
       <c r="E30" s="6"/>
     </row>
@@ -1627,12 +1636,12 @@
       <c r="C31" s="9">
         <v>1</v>
       </c>
-      <c r="D31" s="5" t="s">
-        <v>99</v>
+      <c r="D31" s="15" t="s">
+        <v>96</v>
       </c>
       <c r="E31" s="6"/>
     </row>
-    <row r="32" spans="1:5" ht="14" thickBot="1">
+    <row r="32" spans="1:5" ht="13.5" thickBot="1">
       <c r="A32" s="5" t="s">
         <v>35</v>
       </c>
@@ -1640,8 +1649,8 @@
       <c r="C32" s="9">
         <v>1</v>
       </c>
-      <c r="D32" s="7" t="s">
-        <v>100</v>
+      <c r="D32" s="14" t="s">
+        <v>97</v>
       </c>
       <c r="E32" s="8"/>
     </row>
@@ -1654,8 +1663,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="14" thickBot="1">
-      <c r="A34" s="5" t="s">
+    <row r="34" spans="1:5" ht="13.5" thickBot="1">
+      <c r="A34" s="15" t="s">
         <v>37</v>
       </c>
       <c r="B34" s="6"/>
@@ -1663,7 +1672,7 @@
         <v>1</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1682,7 +1691,7 @@
       </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="5" t="s">
+      <c r="A36" s="15" t="s">
         <v>39</v>
       </c>
       <c r="B36" s="6"/>
@@ -1690,12 +1699,12 @@
         <v>1</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E36" s="6"/>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="5" t="s">
+      <c r="A37" s="15" t="s">
         <v>40</v>
       </c>
       <c r="B37" s="6"/>
@@ -1703,12 +1712,12 @@
         <v>1</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E37" s="6"/>
     </row>
-    <row r="38" spans="1:5" ht="14" thickBot="1">
-      <c r="A38" s="5" t="s">
+    <row r="38" spans="1:5" ht="13.5" thickBot="1">
+      <c r="A38" s="15" t="s">
         <v>41</v>
       </c>
       <c r="B38" s="6"/>
@@ -1716,14 +1725,14 @@
         <v>31</v>
       </c>
       <c r="D38" s="14" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E38" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="5" t="s">
+      <c r="A39" s="15" t="s">
         <v>42</v>
       </c>
       <c r="B39" s="6"/>
@@ -1732,7 +1741,7 @@
       </c>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="5" t="s">
+      <c r="A40" s="15" t="s">
         <v>43</v>
       </c>
       <c r="B40" s="6"/>
@@ -1741,7 +1750,7 @@
       </c>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="5" t="s">
+      <c r="A41" s="15" t="s">
         <v>44</v>
       </c>
       <c r="B41" s="6"/>
@@ -1813,7 +1822,7 @@
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="5" t="s">
+      <c r="A49" s="15" t="s">
         <v>53</v>
       </c>
       <c r="B49" s="6"/>
@@ -1822,7 +1831,7 @@
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="5" t="s">
+      <c r="A50" s="15" t="s">
         <v>54</v>
       </c>
       <c r="B50" s="6"/>
@@ -1831,7 +1840,7 @@
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="5" t="s">
+      <c r="A51" s="15" t="s">
         <v>55</v>
       </c>
       <c r="B51" s="6"/>
@@ -1840,7 +1849,7 @@
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="5" t="s">
+      <c r="A52" s="15" t="s">
         <v>56</v>
       </c>
       <c r="B52" s="6"/>
@@ -1849,7 +1858,7 @@
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="5" t="s">
+      <c r="A53" s="15" t="s">
         <v>57</v>
       </c>
       <c r="B53" s="6"/>
@@ -1947,7 +1956,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="14" thickBot="1">
+    <row r="64" spans="1:3" ht="13.5" thickBot="1">
       <c r="A64" s="7" t="s">
         <v>68</v>
       </c>

--- a/Feature_engineering.xlsx
+++ b/Feature_engineering.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="24900" windowHeight="18480"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="24900" windowHeight="18480" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="107">
   <si>
     <t>Average speed</t>
   </si>
@@ -435,12 +436,18 @@
       <t>速度</t>
     </r>
   </si>
+  <si>
+    <t>A 加速度值 : A=(V1-V0)/(T1-T0)</t>
+  </si>
+  <si>
+    <t>turning point</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -520,8 +527,21 @@
       <name val="Libian SC Regular"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -531,6 +551,54 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -647,7 +715,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -676,6 +744,17 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -749,7 +828,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -804,7 +883,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -859,7 +938,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -914,7 +993,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -969,7 +1048,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1026,7 +1105,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1061,7 +1140,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1272,21 +1351,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E64"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView showGridLines="0" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30:D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="69.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" style="9"/>
-    <col min="4" max="4" width="51.85546875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="19.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.85546875" style="2"/>
+    <col min="1" max="1" width="69.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="23.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="9"/>
+    <col min="4" max="4" width="51.88671875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="19.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13.5" thickBot="1">
+    <row r="1" spans="1:5" ht="13.8" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -1360,7 +1439,7 @@
       </c>
       <c r="E6" s="6"/>
     </row>
-    <row r="7" spans="1:5" ht="13.5" thickBot="1">
+    <row r="7" spans="1:5" ht="13.8" thickBot="1">
       <c r="A7" s="15" t="s">
         <v>4</v>
       </c>
@@ -1376,7 +1455,7 @@
       </c>
       <c r="B8" s="6"/>
     </row>
-    <row r="9" spans="1:5" ht="13.5" thickBot="1">
+    <row r="9" spans="1:5" ht="13.8" thickBot="1">
       <c r="A9" s="15" t="s">
         <v>6</v>
       </c>
@@ -1409,7 +1488,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="13.5" thickBot="1">
+    <row r="12" spans="1:5" ht="13.8" thickBot="1">
       <c r="A12" s="14" t="s">
         <v>9</v>
       </c>
@@ -1429,7 +1508,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="13.5" thickBot="1">
+    <row r="14" spans="1:5" ht="13.8" thickBot="1">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
@@ -1499,7 +1578,7 @@
       </c>
       <c r="E19" s="6"/>
     </row>
-    <row r="20" spans="1:5" ht="13.5" thickBot="1">
+    <row r="20" spans="1:5" ht="13.8" thickBot="1">
       <c r="A20" s="7" t="s">
         <v>22</v>
       </c>
@@ -1509,18 +1588,18 @@
       </c>
       <c r="E20" s="6"/>
     </row>
-    <row r="21" spans="1:5" ht="13.5" thickBot="1">
+    <row r="21" spans="1:5" ht="13.8" thickBot="1">
       <c r="D21" s="7" t="s">
         <v>90</v>
       </c>
       <c r="E21" s="8"/>
     </row>
-    <row r="22" spans="1:5" ht="13.5" thickBot="1">
+    <row r="22" spans="1:5" ht="13.8" thickBot="1">
       <c r="A22" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="13.5" thickBot="1">
+    <row r="23" spans="1:5" ht="13.8" thickBot="1">
       <c r="A23" s="3" t="s">
         <v>19</v>
       </c>
@@ -1641,7 +1720,7 @@
       </c>
       <c r="E31" s="6"/>
     </row>
-    <row r="32" spans="1:5" ht="13.5" thickBot="1">
+    <row r="32" spans="1:5" ht="13.8" thickBot="1">
       <c r="A32" s="5" t="s">
         <v>35</v>
       </c>
@@ -1663,7 +1742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="13.5" thickBot="1">
+    <row r="34" spans="1:5" ht="13.8" thickBot="1">
       <c r="A34" s="15" t="s">
         <v>37</v>
       </c>
@@ -1716,7 +1795,7 @@
       </c>
       <c r="E37" s="6"/>
     </row>
-    <row r="38" spans="1:5" ht="13.5" thickBot="1">
+    <row r="38" spans="1:5" ht="13.8" thickBot="1">
       <c r="A38" s="15" t="s">
         <v>41</v>
       </c>
@@ -1956,7 +2035,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="13.5" thickBot="1">
+    <row r="64" spans="1:3" ht="13.8" thickBot="1">
       <c r="A64" s="7" t="s">
         <v>68</v>
       </c>
@@ -1975,4 +2054,140 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <cols>
+    <col min="1" max="1" width="24.44140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="63.5546875" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.5546875" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.6640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.33203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.21875" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="21"/>
+      <c r="D3" s="16" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="B5" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="21"/>
+      <c r="B6" s="26" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="B7" s="22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="B8" s="22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="B9" s="23" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="B10" s="23" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="B11" s="16" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="B12" s="16" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="B13" s="26" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="B14" s="24" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="B15" s="25" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="B16" s="20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Feature_engineering.xlsx
+++ b/Feature_engineering.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="24900" windowHeight="18480" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="24900" windowHeight="18480"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -828,7 +828,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -883,7 +883,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -938,7 +938,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -993,7 +993,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1048,7 +1048,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1351,8 +1351,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E64"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30:D32"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C34" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
@@ -2060,7 +2060,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>

--- a/Feature_engineering.xlsx
+++ b/Feature_engineering.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="24900" windowHeight="18480"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="24900" windowHeight="18480" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -828,7 +828,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -883,7 +883,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -938,7 +938,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -993,7 +993,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1048,7 +1048,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1351,21 +1351,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E64"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C34" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="C34" workbookViewId="0">
       <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="69.6640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="23.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="9"/>
-    <col min="4" max="4" width="51.88671875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="19.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="69.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" style="9"/>
+    <col min="4" max="4" width="51.85546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13.8" thickBot="1">
+    <row r="1" spans="1:5" ht="13.5" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="E6" s="6"/>
     </row>
-    <row r="7" spans="1:5" ht="13.8" thickBot="1">
+    <row r="7" spans="1:5" ht="13.5" thickBot="1">
       <c r="A7" s="15" t="s">
         <v>4</v>
       </c>
@@ -1455,7 +1455,7 @@
       </c>
       <c r="B8" s="6"/>
     </row>
-    <row r="9" spans="1:5" ht="13.8" thickBot="1">
+    <row r="9" spans="1:5" ht="13.5" thickBot="1">
       <c r="A9" s="15" t="s">
         <v>6</v>
       </c>
@@ -1488,7 +1488,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="13.8" thickBot="1">
+    <row r="12" spans="1:5" ht="13.5" thickBot="1">
       <c r="A12" s="14" t="s">
         <v>9</v>
       </c>
@@ -1508,7 +1508,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="13.8" thickBot="1">
+    <row r="14" spans="1:5" ht="13.5" thickBot="1">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
@@ -1578,7 +1578,7 @@
       </c>
       <c r="E19" s="6"/>
     </row>
-    <row r="20" spans="1:5" ht="13.8" thickBot="1">
+    <row r="20" spans="1:5" ht="13.5" thickBot="1">
       <c r="A20" s="7" t="s">
         <v>22</v>
       </c>
@@ -1588,18 +1588,18 @@
       </c>
       <c r="E20" s="6"/>
     </row>
-    <row r="21" spans="1:5" ht="13.8" thickBot="1">
+    <row r="21" spans="1:5" ht="13.5" thickBot="1">
       <c r="D21" s="7" t="s">
         <v>90</v>
       </c>
       <c r="E21" s="8"/>
     </row>
-    <row r="22" spans="1:5" ht="13.8" thickBot="1">
+    <row r="22" spans="1:5" ht="13.5" thickBot="1">
       <c r="A22" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="13.8" thickBot="1">
+    <row r="23" spans="1:5" ht="13.5" thickBot="1">
       <c r="A23" s="3" t="s">
         <v>19</v>
       </c>
@@ -1720,7 +1720,7 @@
       </c>
       <c r="E31" s="6"/>
     </row>
-    <row r="32" spans="1:5" ht="13.8" thickBot="1">
+    <row r="32" spans="1:5" ht="13.5" thickBot="1">
       <c r="A32" s="5" t="s">
         <v>35</v>
       </c>
@@ -1742,7 +1742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="13.8" thickBot="1">
+    <row r="34" spans="1:5" ht="13.5" thickBot="1">
       <c r="A34" s="15" t="s">
         <v>37</v>
       </c>
@@ -1795,7 +1795,7 @@
       </c>
       <c r="E37" s="6"/>
     </row>
-    <row r="38" spans="1:5" ht="13.8" thickBot="1">
+    <row r="38" spans="1:5" ht="13.5" thickBot="1">
       <c r="A38" s="15" t="s">
         <v>41</v>
       </c>
@@ -2035,7 +2035,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="13.8" thickBot="1">
+    <row r="64" spans="1:3" ht="13.5" thickBot="1">
       <c r="A64" s="7" t="s">
         <v>68</v>
       </c>
@@ -2060,19 +2060,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="24.44140625" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="63.5546875" style="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.5546875" style="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.6640625" style="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.33203125" style="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.21875" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="16"/>
+    <col min="1" max="1" width="24.42578125" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="63.5703125" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.5703125" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.7109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.28515625" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.28515625" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.85546875" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -2096,7 +2096,7 @@
       <c r="B2" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="19" t="s">
         <v>106</v>
       </c>
     </row>
@@ -2108,7 +2108,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="21"/>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="19" t="s">
         <v>79</v>
       </c>
     </row>
@@ -2119,7 +2119,7 @@
       <c r="B4" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="19" t="s">
         <v>97</v>
       </c>
     </row>
